--- a/static/template.xlsx
+++ b/static/template.xlsx
@@ -1,78 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Exportação" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Exportação" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Jazida.com – Exportação de Dados</t>
+    <t xml:space="preserve">Empresa: </t>
   </si>
   <si>
-    <t xml:space="preserve">Empresa: </t>
+    <t>Grupo:</t>
   </si>
   <si>
     <t xml:space="preserve">Usuário: </t>
   </si>
   <si>
-    <t xml:space="preserve">E-mail:</t>
+    <t>E-mail:</t>
   </si>
   <si>
-    <t xml:space="preserve">Data:</t>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os dados apresentados foram obtidos através de consulta pública aos órgãos oficiais, mas não substituem os instrumentos oficiais pertinentes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="SimSun"/>
+      <color theme="1"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <color indexed="65"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <i/>
+      <color indexed="65"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -85,12 +70,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF30AC66"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor indexed="49"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -98,119 +83,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF30AC66"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -218,24 +132,24 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>642960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPr id="4" name="image1.png" descr="" hidden="0"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
           <a:off x="0" y="0"/>
-          <a:ext cx="3894120" cy="4556520"/>
+          <a:ext cx="5448299" cy="3638142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -250,24 +164,435 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" workbookViewId="0" zoomScale="100">
+      <selection activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.62109375" defaultRowHeight="18"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.51"/>
+    <col bestFit="1" customWidth="1" min="1" max="5" style="0" width="10.880000000000001"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="0" width="13.50390625"/>
+    <col bestFit="1" customWidth="1" min="7" max="26" style="0" width="10.880000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -289,28 +614,8 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -332,28 +637,8 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -375,28 +660,8 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -418,28 +683,8 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -461,28 +706,8 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -507,34 +732,15 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -552,25 +758,8 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -595,33 +784,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
       </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -640,33 +812,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
       </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -685,33 +840,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
       </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -730,33 +868,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
       </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -775,31 +896,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -818,25 +924,8 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -861,25 +950,8 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -904,25 +976,8 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -947,25 +1002,8 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -990,25 +1028,8 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1033,25 +1054,8 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1076,25 +1080,8 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1119,25 +1106,8 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1162,25 +1132,8 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1205,25 +1158,8 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1248,25 +1184,8 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1291,25 +1210,8 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1334,25 +1236,8 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1377,38 +1262,23 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1420,25 +1290,8 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1463,25 +1316,8 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1506,25 +1342,8 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1549,25 +1368,8 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1592,25 +1394,8 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1635,25 +1420,8 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1678,25 +1446,8 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1721,25 +1472,8 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1764,25 +1498,8 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1807,25 +1524,8 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1850,25 +1550,8 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1893,25 +1576,8 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1936,25 +1602,8 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1979,25 +1628,8 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2022,25 +1654,8 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2065,25 +1680,8 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" ht="13.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2108,25 +1706,8 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2151,25 +1732,8 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2194,25 +1758,8 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2237,25 +1784,8 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2280,25 +1810,8 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="1"/>
-      <c r="AO47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2323,25 +1836,8 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2366,25 +1862,8 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2409,25 +1888,8 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2452,25 +1914,8 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2495,25 +1940,8 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2538,25 +1966,8 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2581,25 +1992,8 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2624,25 +2018,8 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" ht="13.5" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2667,25 +2044,8 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2710,25 +2070,8 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2753,25 +2096,8 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2796,25 +2122,8 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="1"/>
-      <c r="AO59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2839,25 +2148,8 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
-      <c r="AO60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2882,25 +2174,8 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2925,25 +2200,8 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="1"/>
-      <c r="AO62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2968,25 +2226,8 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3011,25 +2252,8 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3054,25 +2278,8 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3097,25 +2304,8 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="1"/>
-      <c r="AO66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3140,25 +2330,8 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3183,25 +2356,8 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3226,25 +2382,8 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="70" ht="13.5" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3269,25 +2408,8 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
-      <c r="AN70" s="1"/>
-      <c r="AO70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" ht="13.5" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3312,25 +2434,8 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3355,25 +2460,8 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
-      <c r="AN72" s="1"/>
-      <c r="AO72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3398,25 +2486,8 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
-      <c r="AO73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" ht="13.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3441,25 +2512,8 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-      <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
-      <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
-      <c r="AM74" s="1"/>
-      <c r="AN74" s="1"/>
-      <c r="AO74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" ht="13.5" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3484,25 +2538,8 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="1"/>
-      <c r="AO75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3527,25 +2564,8 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="1"/>
-      <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
-      <c r="AJ76" s="1"/>
-      <c r="AK76" s="1"/>
-      <c r="AL76" s="1"/>
-      <c r="AM76" s="1"/>
-      <c r="AN76" s="1"/>
-      <c r="AO76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3570,37 +2590,971 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
-      <c r="AM77" s="1"/>
-      <c r="AN77" s="1"/>
-      <c r="AO77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="78" ht="13.5" customHeight="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="514" ht="13.5" customHeight="1"/>
+    <row r="515" ht="13.5" customHeight="1"/>
+    <row r="516" ht="13.5" customHeight="1"/>
+    <row r="517" ht="13.5" customHeight="1"/>
+    <row r="518" ht="13.5" customHeight="1"/>
+    <row r="519" ht="13.5" customHeight="1"/>
+    <row r="520" ht="13.5" customHeight="1"/>
+    <row r="521" ht="13.5" customHeight="1"/>
+    <row r="522" ht="13.5" customHeight="1"/>
+    <row r="523" ht="13.5" customHeight="1"/>
+    <row r="524" ht="13.5" customHeight="1"/>
+    <row r="525" ht="13.5" customHeight="1"/>
+    <row r="526" ht="13.5" customHeight="1"/>
+    <row r="527" ht="13.5" customHeight="1"/>
+    <row r="528" ht="13.5" customHeight="1"/>
+    <row r="529" ht="13.5" customHeight="1"/>
+    <row r="530" ht="13.5" customHeight="1"/>
+    <row r="531" ht="13.5" customHeight="1"/>
+    <row r="532" ht="13.5" customHeight="1"/>
+    <row r="533" ht="13.5" customHeight="1"/>
+    <row r="534" ht="13.5" customHeight="1"/>
+    <row r="535" ht="13.5" customHeight="1"/>
+    <row r="536" ht="13.5" customHeight="1"/>
+    <row r="537" ht="13.5" customHeight="1"/>
+    <row r="538" ht="13.5" customHeight="1"/>
+    <row r="539" ht="13.5" customHeight="1"/>
+    <row r="540" ht="13.5" customHeight="1"/>
+    <row r="541" ht="13.5" customHeight="1"/>
+    <row r="542" ht="13.5" customHeight="1"/>
+    <row r="543" ht="13.5" customHeight="1"/>
+    <row r="544" ht="13.5" customHeight="1"/>
+    <row r="545" ht="13.5" customHeight="1"/>
+    <row r="546" ht="13.5" customHeight="1"/>
+    <row r="547" ht="13.5" customHeight="1"/>
+    <row r="548" ht="13.5" customHeight="1"/>
+    <row r="549" ht="13.5" customHeight="1"/>
+    <row r="550" ht="13.5" customHeight="1"/>
+    <row r="551" ht="13.5" customHeight="1"/>
+    <row r="552" ht="13.5" customHeight="1"/>
+    <row r="553" ht="13.5" customHeight="1"/>
+    <row r="554" ht="13.5" customHeight="1"/>
+    <row r="555" ht="13.5" customHeight="1"/>
+    <row r="556" ht="13.5" customHeight="1"/>
+    <row r="557" ht="13.5" customHeight="1"/>
+    <row r="558" ht="13.5" customHeight="1"/>
+    <row r="559" ht="13.5" customHeight="1"/>
+    <row r="560" ht="13.5" customHeight="1"/>
+    <row r="561" ht="13.5" customHeight="1"/>
+    <row r="562" ht="13.5" customHeight="1"/>
+    <row r="563" ht="13.5" customHeight="1"/>
+    <row r="564" ht="13.5" customHeight="1"/>
+    <row r="565" ht="13.5" customHeight="1"/>
+    <row r="566" ht="13.5" customHeight="1"/>
+    <row r="567" ht="13.5" customHeight="1"/>
+    <row r="568" ht="13.5" customHeight="1"/>
+    <row r="569" ht="13.5" customHeight="1"/>
+    <row r="570" ht="13.5" customHeight="1"/>
+    <row r="571" ht="13.5" customHeight="1"/>
+    <row r="572" ht="13.5" customHeight="1"/>
+    <row r="573" ht="13.5" customHeight="1"/>
+    <row r="574" ht="13.5" customHeight="1"/>
+    <row r="575" ht="13.5" customHeight="1"/>
+    <row r="576" ht="13.5" customHeight="1"/>
+    <row r="577" ht="13.5" customHeight="1"/>
+    <row r="578" ht="13.5" customHeight="1"/>
+    <row r="579" ht="13.5" customHeight="1"/>
+    <row r="580" ht="13.5" customHeight="1"/>
+    <row r="581" ht="13.5" customHeight="1"/>
+    <row r="582" ht="13.5" customHeight="1"/>
+    <row r="583" ht="13.5" customHeight="1"/>
+    <row r="584" ht="13.5" customHeight="1"/>
+    <row r="585" ht="13.5" customHeight="1"/>
+    <row r="586" ht="13.5" customHeight="1"/>
+    <row r="587" ht="13.5" customHeight="1"/>
+    <row r="588" ht="13.5" customHeight="1"/>
+    <row r="589" ht="13.5" customHeight="1"/>
+    <row r="590" ht="13.5" customHeight="1"/>
+    <row r="591" ht="13.5" customHeight="1"/>
+    <row r="592" ht="13.5" customHeight="1"/>
+    <row r="593" ht="13.5" customHeight="1"/>
+    <row r="594" ht="13.5" customHeight="1"/>
+    <row r="595" ht="13.5" customHeight="1"/>
+    <row r="596" ht="13.5" customHeight="1"/>
+    <row r="597" ht="13.5" customHeight="1"/>
+    <row r="598" ht="13.5" customHeight="1"/>
+    <row r="599" ht="13.5" customHeight="1"/>
+    <row r="600" ht="13.5" customHeight="1"/>
+    <row r="601" ht="13.5" customHeight="1"/>
+    <row r="602" ht="13.5" customHeight="1"/>
+    <row r="603" ht="13.5" customHeight="1"/>
+    <row r="604" ht="13.5" customHeight="1"/>
+    <row r="605" ht="13.5" customHeight="1"/>
+    <row r="606" ht="13.5" customHeight="1"/>
+    <row r="607" ht="13.5" customHeight="1"/>
+    <row r="608" ht="13.5" customHeight="1"/>
+    <row r="609" ht="13.5" customHeight="1"/>
+    <row r="610" ht="13.5" customHeight="1"/>
+    <row r="611" ht="13.5" customHeight="1"/>
+    <row r="612" ht="13.5" customHeight="1"/>
+    <row r="613" ht="13.5" customHeight="1"/>
+    <row r="614" ht="13.5" customHeight="1"/>
+    <row r="615" ht="13.5" customHeight="1"/>
+    <row r="616" ht="13.5" customHeight="1"/>
+    <row r="617" ht="13.5" customHeight="1"/>
+    <row r="618" ht="13.5" customHeight="1"/>
+    <row r="619" ht="13.5" customHeight="1"/>
+    <row r="620" ht="13.5" customHeight="1"/>
+    <row r="621" ht="13.5" customHeight="1"/>
+    <row r="622" ht="13.5" customHeight="1"/>
+    <row r="623" ht="13.5" customHeight="1"/>
+    <row r="624" ht="13.5" customHeight="1"/>
+    <row r="625" ht="13.5" customHeight="1"/>
+    <row r="626" ht="13.5" customHeight="1"/>
+    <row r="627" ht="13.5" customHeight="1"/>
+    <row r="628" ht="13.5" customHeight="1"/>
+    <row r="629" ht="13.5" customHeight="1"/>
+    <row r="630" ht="13.5" customHeight="1"/>
+    <row r="631" ht="13.5" customHeight="1"/>
+    <row r="632" ht="13.5" customHeight="1"/>
+    <row r="633" ht="13.5" customHeight="1"/>
+    <row r="634" ht="13.5" customHeight="1"/>
+    <row r="635" ht="13.5" customHeight="1"/>
+    <row r="636" ht="13.5" customHeight="1"/>
+    <row r="637" ht="13.5" customHeight="1"/>
+    <row r="638" ht="13.5" customHeight="1"/>
+    <row r="639" ht="13.5" customHeight="1"/>
+    <row r="640" ht="13.5" customHeight="1"/>
+    <row r="641" ht="13.5" customHeight="1"/>
+    <row r="642" ht="13.5" customHeight="1"/>
+    <row r="643" ht="13.5" customHeight="1"/>
+    <row r="644" ht="13.5" customHeight="1"/>
+    <row r="645" ht="13.5" customHeight="1"/>
+    <row r="646" ht="13.5" customHeight="1"/>
+    <row r="647" ht="13.5" customHeight="1"/>
+    <row r="648" ht="13.5" customHeight="1"/>
+    <row r="649" ht="13.5" customHeight="1"/>
+    <row r="650" ht="13.5" customHeight="1"/>
+    <row r="651" ht="13.5" customHeight="1"/>
+    <row r="652" ht="13.5" customHeight="1"/>
+    <row r="653" ht="13.5" customHeight="1"/>
+    <row r="654" ht="13.5" customHeight="1"/>
+    <row r="655" ht="13.5" customHeight="1"/>
+    <row r="656" ht="13.5" customHeight="1"/>
+    <row r="657" ht="13.5" customHeight="1"/>
+    <row r="658" ht="13.5" customHeight="1"/>
+    <row r="659" ht="13.5" customHeight="1"/>
+    <row r="660" ht="13.5" customHeight="1"/>
+    <row r="661" ht="13.5" customHeight="1"/>
+    <row r="662" ht="13.5" customHeight="1"/>
+    <row r="663" ht="13.5" customHeight="1"/>
+    <row r="664" ht="13.5" customHeight="1"/>
+    <row r="665" ht="13.5" customHeight="1"/>
+    <row r="666" ht="13.5" customHeight="1"/>
+    <row r="667" ht="13.5" customHeight="1"/>
+    <row r="668" ht="13.5" customHeight="1"/>
+    <row r="669" ht="13.5" customHeight="1"/>
+    <row r="670" ht="13.5" customHeight="1"/>
+    <row r="671" ht="13.5" customHeight="1"/>
+    <row r="672" ht="13.5" customHeight="1"/>
+    <row r="673" ht="13.5" customHeight="1"/>
+    <row r="674" ht="13.5" customHeight="1"/>
+    <row r="675" ht="13.5" customHeight="1"/>
+    <row r="676" ht="13.5" customHeight="1"/>
+    <row r="677" ht="13.5" customHeight="1"/>
+    <row r="678" ht="13.5" customHeight="1"/>
+    <row r="679" ht="13.5" customHeight="1"/>
+    <row r="680" ht="13.5" customHeight="1"/>
+    <row r="681" ht="13.5" customHeight="1"/>
+    <row r="682" ht="13.5" customHeight="1"/>
+    <row r="683" ht="13.5" customHeight="1"/>
+    <row r="684" ht="13.5" customHeight="1"/>
+    <row r="685" ht="13.5" customHeight="1"/>
+    <row r="686" ht="13.5" customHeight="1"/>
+    <row r="687" ht="13.5" customHeight="1"/>
+    <row r="688" ht="13.5" customHeight="1"/>
+    <row r="689" ht="13.5" customHeight="1"/>
+    <row r="690" ht="13.5" customHeight="1"/>
+    <row r="691" ht="13.5" customHeight="1"/>
+    <row r="692" ht="13.5" customHeight="1"/>
+    <row r="693" ht="13.5" customHeight="1"/>
+    <row r="694" ht="13.5" customHeight="1"/>
+    <row r="695" ht="13.5" customHeight="1"/>
+    <row r="696" ht="13.5" customHeight="1"/>
+    <row r="697" ht="13.5" customHeight="1"/>
+    <row r="698" ht="13.5" customHeight="1"/>
+    <row r="699" ht="13.5" customHeight="1"/>
+    <row r="700" ht="13.5" customHeight="1"/>
+    <row r="701" ht="13.5" customHeight="1"/>
+    <row r="702" ht="13.5" customHeight="1"/>
+    <row r="703" ht="13.5" customHeight="1"/>
+    <row r="704" ht="13.5" customHeight="1"/>
+    <row r="705" ht="13.5" customHeight="1"/>
+    <row r="706" ht="13.5" customHeight="1"/>
+    <row r="707" ht="13.5" customHeight="1"/>
+    <row r="708" ht="13.5" customHeight="1"/>
+    <row r="709" ht="13.5" customHeight="1"/>
+    <row r="710" ht="13.5" customHeight="1"/>
+    <row r="711" ht="13.5" customHeight="1"/>
+    <row r="712" ht="13.5" customHeight="1"/>
+    <row r="713" ht="13.5" customHeight="1"/>
+    <row r="714" ht="13.5" customHeight="1"/>
+    <row r="715" ht="13.5" customHeight="1"/>
+    <row r="716" ht="13.5" customHeight="1"/>
+    <row r="717" ht="13.5" customHeight="1"/>
+    <row r="718" ht="13.5" customHeight="1"/>
+    <row r="719" ht="13.5" customHeight="1"/>
+    <row r="720" ht="13.5" customHeight="1"/>
+    <row r="721" ht="13.5" customHeight="1"/>
+    <row r="722" ht="13.5" customHeight="1"/>
+    <row r="723" ht="13.5" customHeight="1"/>
+    <row r="724" ht="13.5" customHeight="1"/>
+    <row r="725" ht="13.5" customHeight="1"/>
+    <row r="726" ht="13.5" customHeight="1"/>
+    <row r="727" ht="13.5" customHeight="1"/>
+    <row r="728" ht="13.5" customHeight="1"/>
+    <row r="729" ht="13.5" customHeight="1"/>
+    <row r="730" ht="13.5" customHeight="1"/>
+    <row r="731" ht="13.5" customHeight="1"/>
+    <row r="732" ht="13.5" customHeight="1"/>
+    <row r="733" ht="13.5" customHeight="1"/>
+    <row r="734" ht="13.5" customHeight="1"/>
+    <row r="735" ht="13.5" customHeight="1"/>
+    <row r="736" ht="13.5" customHeight="1"/>
+    <row r="737" ht="13.5" customHeight="1"/>
+    <row r="738" ht="13.5" customHeight="1"/>
+    <row r="739" ht="13.5" customHeight="1"/>
+    <row r="740" ht="13.5" customHeight="1"/>
+    <row r="741" ht="13.5" customHeight="1"/>
+    <row r="742" ht="13.5" customHeight="1"/>
+    <row r="743" ht="13.5" customHeight="1"/>
+    <row r="744" ht="13.5" customHeight="1"/>
+    <row r="745" ht="13.5" customHeight="1"/>
+    <row r="746" ht="13.5" customHeight="1"/>
+    <row r="747" ht="13.5" customHeight="1"/>
+    <row r="748" ht="13.5" customHeight="1"/>
+    <row r="749" ht="13.5" customHeight="1"/>
+    <row r="750" ht="13.5" customHeight="1"/>
+    <row r="751" ht="13.5" customHeight="1"/>
+    <row r="752" ht="13.5" customHeight="1"/>
+    <row r="753" ht="13.5" customHeight="1"/>
+    <row r="754" ht="13.5" customHeight="1"/>
+    <row r="755" ht="13.5" customHeight="1"/>
+    <row r="756" ht="13.5" customHeight="1"/>
+    <row r="757" ht="13.5" customHeight="1"/>
+    <row r="758" ht="13.5" customHeight="1"/>
+    <row r="759" ht="13.5" customHeight="1"/>
+    <row r="760" ht="13.5" customHeight="1"/>
+    <row r="761" ht="13.5" customHeight="1"/>
+    <row r="762" ht="13.5" customHeight="1"/>
+    <row r="763" ht="13.5" customHeight="1"/>
+    <row r="764" ht="13.5" customHeight="1"/>
+    <row r="765" ht="13.5" customHeight="1"/>
+    <row r="766" ht="13.5" customHeight="1"/>
+    <row r="767" ht="13.5" customHeight="1"/>
+    <row r="768" ht="13.5" customHeight="1"/>
+    <row r="769" ht="13.5" customHeight="1"/>
+    <row r="770" ht="13.5" customHeight="1"/>
+    <row r="771" ht="13.5" customHeight="1"/>
+    <row r="772" ht="13.5" customHeight="1"/>
+    <row r="773" ht="13.5" customHeight="1"/>
+    <row r="774" ht="13.5" customHeight="1"/>
+    <row r="775" ht="13.5" customHeight="1"/>
+    <row r="776" ht="13.5" customHeight="1"/>
+    <row r="777" ht="13.5" customHeight="1"/>
+    <row r="778" ht="13.5" customHeight="1"/>
+    <row r="779" ht="13.5" customHeight="1"/>
+    <row r="780" ht="13.5" customHeight="1"/>
+    <row r="781" ht="13.5" customHeight="1"/>
+    <row r="782" ht="13.5" customHeight="1"/>
+    <row r="783" ht="13.5" customHeight="1"/>
+    <row r="784" ht="13.5" customHeight="1"/>
+    <row r="785" ht="13.5" customHeight="1"/>
+    <row r="786" ht="13.5" customHeight="1"/>
+    <row r="787" ht="13.5" customHeight="1"/>
+    <row r="788" ht="13.5" customHeight="1"/>
+    <row r="789" ht="13.5" customHeight="1"/>
+    <row r="790" ht="13.5" customHeight="1"/>
+    <row r="791" ht="13.5" customHeight="1"/>
+    <row r="792" ht="13.5" customHeight="1"/>
+    <row r="793" ht="13.5" customHeight="1"/>
+    <row r="794" ht="13.5" customHeight="1"/>
+    <row r="795" ht="13.5" customHeight="1"/>
+    <row r="796" ht="13.5" customHeight="1"/>
+    <row r="797" ht="13.5" customHeight="1"/>
+    <row r="798" ht="13.5" customHeight="1"/>
+    <row r="799" ht="13.5" customHeight="1"/>
+    <row r="800" ht="13.5" customHeight="1"/>
+    <row r="801" ht="13.5" customHeight="1"/>
+    <row r="802" ht="13.5" customHeight="1"/>
+    <row r="803" ht="13.5" customHeight="1"/>
+    <row r="804" ht="13.5" customHeight="1"/>
+    <row r="805" ht="13.5" customHeight="1"/>
+    <row r="806" ht="13.5" customHeight="1"/>
+    <row r="807" ht="13.5" customHeight="1"/>
+    <row r="808" ht="13.5" customHeight="1"/>
+    <row r="809" ht="13.5" customHeight="1"/>
+    <row r="810" ht="13.5" customHeight="1"/>
+    <row r="811" ht="13.5" customHeight="1"/>
+    <row r="812" ht="13.5" customHeight="1"/>
+    <row r="813" ht="13.5" customHeight="1"/>
+    <row r="814" ht="13.5" customHeight="1"/>
+    <row r="815" ht="13.5" customHeight="1"/>
+    <row r="816" ht="13.5" customHeight="1"/>
+    <row r="817" ht="13.5" customHeight="1"/>
+    <row r="818" ht="13.5" customHeight="1"/>
+    <row r="819" ht="13.5" customHeight="1"/>
+    <row r="820" ht="13.5" customHeight="1"/>
+    <row r="821" ht="13.5" customHeight="1"/>
+    <row r="822" ht="13.5" customHeight="1"/>
+    <row r="823" ht="13.5" customHeight="1"/>
+    <row r="824" ht="13.5" customHeight="1"/>
+    <row r="825" ht="13.5" customHeight="1"/>
+    <row r="826" ht="13.5" customHeight="1"/>
+    <row r="827" ht="13.5" customHeight="1"/>
+    <row r="828" ht="13.5" customHeight="1"/>
+    <row r="829" ht="13.5" customHeight="1"/>
+    <row r="830" ht="13.5" customHeight="1"/>
+    <row r="831" ht="13.5" customHeight="1"/>
+    <row r="832" ht="13.5" customHeight="1"/>
+    <row r="833" ht="13.5" customHeight="1"/>
+    <row r="834" ht="13.5" customHeight="1"/>
+    <row r="835" ht="13.5" customHeight="1"/>
+    <row r="836" ht="13.5" customHeight="1"/>
+    <row r="837" ht="13.5" customHeight="1"/>
+    <row r="838" ht="13.5" customHeight="1"/>
+    <row r="839" ht="13.5" customHeight="1"/>
+    <row r="840" ht="13.5" customHeight="1"/>
+    <row r="841" ht="13.5" customHeight="1"/>
+    <row r="842" ht="13.5" customHeight="1"/>
+    <row r="843" ht="13.5" customHeight="1"/>
+    <row r="844" ht="13.5" customHeight="1"/>
+    <row r="845" ht="13.5" customHeight="1"/>
+    <row r="846" ht="13.5" customHeight="1"/>
+    <row r="847" ht="13.5" customHeight="1"/>
+    <row r="848" ht="13.5" customHeight="1"/>
+    <row r="849" ht="13.5" customHeight="1"/>
+    <row r="850" ht="13.5" customHeight="1"/>
+    <row r="851" ht="13.5" customHeight="1"/>
+    <row r="852" ht="13.5" customHeight="1"/>
+    <row r="853" ht="13.5" customHeight="1"/>
+    <row r="854" ht="13.5" customHeight="1"/>
+    <row r="855" ht="13.5" customHeight="1"/>
+    <row r="856" ht="13.5" customHeight="1"/>
+    <row r="857" ht="13.5" customHeight="1"/>
+    <row r="858" ht="13.5" customHeight="1"/>
+    <row r="859" ht="13.5" customHeight="1"/>
+    <row r="860" ht="13.5" customHeight="1"/>
+    <row r="861" ht="13.5" customHeight="1"/>
+    <row r="862" ht="13.5" customHeight="1"/>
+    <row r="863" ht="13.5" customHeight="1"/>
+    <row r="864" ht="13.5" customHeight="1"/>
+    <row r="865" ht="13.5" customHeight="1"/>
+    <row r="866" ht="13.5" customHeight="1"/>
+    <row r="867" ht="13.5" customHeight="1"/>
+    <row r="868" ht="13.5" customHeight="1"/>
+    <row r="869" ht="13.5" customHeight="1"/>
+    <row r="870" ht="13.5" customHeight="1"/>
+    <row r="871" ht="13.5" customHeight="1"/>
+    <row r="872" ht="13.5" customHeight="1"/>
+    <row r="873" ht="13.5" customHeight="1"/>
+    <row r="874" ht="13.5" customHeight="1"/>
+    <row r="875" ht="13.5" customHeight="1"/>
+    <row r="876" ht="13.5" customHeight="1"/>
+    <row r="877" ht="13.5" customHeight="1"/>
+    <row r="878" ht="13.5" customHeight="1"/>
+    <row r="879" ht="13.5" customHeight="1"/>
+    <row r="880" ht="13.5" customHeight="1"/>
+    <row r="881" ht="13.5" customHeight="1"/>
+    <row r="882" ht="13.5" customHeight="1"/>
+    <row r="883" ht="13.5" customHeight="1"/>
+    <row r="884" ht="13.5" customHeight="1"/>
+    <row r="885" ht="13.5" customHeight="1"/>
+    <row r="886" ht="13.5" customHeight="1"/>
+    <row r="887" ht="13.5" customHeight="1"/>
+    <row r="888" ht="13.5" customHeight="1"/>
+    <row r="889" ht="13.5" customHeight="1"/>
+    <row r="890" ht="13.5" customHeight="1"/>
+    <row r="891" ht="13.5" customHeight="1"/>
+    <row r="892" ht="13.5" customHeight="1"/>
+    <row r="893" ht="13.5" customHeight="1"/>
+    <row r="894" ht="13.5" customHeight="1"/>
+    <row r="895" ht="13.5" customHeight="1"/>
+    <row r="896" ht="13.5" customHeight="1"/>
+    <row r="897" ht="13.5" customHeight="1"/>
+    <row r="898" ht="13.5" customHeight="1"/>
+    <row r="899" ht="13.5" customHeight="1"/>
+    <row r="900" ht="13.5" customHeight="1"/>
+    <row r="901" ht="13.5" customHeight="1"/>
+    <row r="902" ht="13.5" customHeight="1"/>
+    <row r="903" ht="13.5" customHeight="1"/>
+    <row r="904" ht="13.5" customHeight="1"/>
+    <row r="905" ht="13.5" customHeight="1"/>
+    <row r="906" ht="13.5" customHeight="1"/>
+    <row r="907" ht="13.5" customHeight="1"/>
+    <row r="908" ht="13.5" customHeight="1"/>
+    <row r="909" ht="13.5" customHeight="1"/>
+    <row r="910" ht="13.5" customHeight="1"/>
+    <row r="911" ht="13.5" customHeight="1"/>
+    <row r="912" ht="13.5" customHeight="1"/>
+    <row r="913" ht="13.5" customHeight="1"/>
+    <row r="914" ht="13.5" customHeight="1"/>
+    <row r="915" ht="13.5" customHeight="1"/>
+    <row r="916" ht="13.5" customHeight="1"/>
+    <row r="917" ht="13.5" customHeight="1"/>
+    <row r="918" ht="13.5" customHeight="1"/>
+    <row r="919" ht="13.5" customHeight="1"/>
+    <row r="920" ht="13.5" customHeight="1"/>
+    <row r="921" ht="13.5" customHeight="1"/>
+    <row r="922" ht="13.5" customHeight="1"/>
+    <row r="923" ht="13.5" customHeight="1"/>
+    <row r="924" ht="13.5" customHeight="1"/>
+    <row r="925" ht="13.5" customHeight="1"/>
+    <row r="926" ht="13.5" customHeight="1"/>
+    <row r="927" ht="13.5" customHeight="1"/>
+    <row r="928" ht="13.5" customHeight="1"/>
+    <row r="929" ht="13.5" customHeight="1"/>
+    <row r="930" ht="13.5" customHeight="1"/>
+    <row r="931" ht="13.5" customHeight="1"/>
+    <row r="932" ht="13.5" customHeight="1"/>
+    <row r="933" ht="13.5" customHeight="1"/>
+    <row r="934" ht="13.5" customHeight="1"/>
+    <row r="935" ht="13.5" customHeight="1"/>
+    <row r="936" ht="13.5" customHeight="1"/>
+    <row r="937" ht="13.5" customHeight="1"/>
+    <row r="938" ht="13.5" customHeight="1"/>
+    <row r="939" ht="13.5" customHeight="1"/>
+    <row r="940" ht="13.5" customHeight="1"/>
+    <row r="941" ht="13.5" customHeight="1"/>
+    <row r="942" ht="13.5" customHeight="1"/>
+    <row r="943" ht="13.5" customHeight="1"/>
+    <row r="944" ht="13.5" customHeight="1"/>
+    <row r="945" ht="13.5" customHeight="1"/>
+    <row r="946" ht="13.5" customHeight="1"/>
+    <row r="947" ht="13.5" customHeight="1"/>
+    <row r="948" ht="13.5" customHeight="1"/>
+    <row r="949" ht="13.5" customHeight="1"/>
+    <row r="950" ht="13.5" customHeight="1"/>
+    <row r="951" ht="13.5" customHeight="1"/>
+    <row r="952" ht="13.5" customHeight="1"/>
+    <row r="953" ht="13.5" customHeight="1"/>
+    <row r="954" ht="13.5" customHeight="1"/>
+    <row r="955" ht="13.5" customHeight="1"/>
+    <row r="956" ht="13.5" customHeight="1"/>
+    <row r="957" ht="13.5" customHeight="1"/>
+    <row r="958" ht="13.5" customHeight="1"/>
+    <row r="959" ht="13.5" customHeight="1"/>
+    <row r="960" ht="13.5" customHeight="1"/>
+    <row r="961" ht="13.5" customHeight="1"/>
+    <row r="962" ht="13.5" customHeight="1"/>
+    <row r="963" ht="13.5" customHeight="1"/>
+    <row r="964" ht="13.5" customHeight="1"/>
+    <row r="965" ht="13.5" customHeight="1"/>
+    <row r="966" ht="13.5" customHeight="1"/>
+    <row r="967" ht="13.5" customHeight="1"/>
+    <row r="968" ht="13.5" customHeight="1"/>
+    <row r="969" ht="13.5" customHeight="1"/>
+    <row r="970" ht="13.5" customHeight="1"/>
+    <row r="971" ht="13.5" customHeight="1"/>
+    <row r="972" ht="13.5" customHeight="1"/>
+    <row r="973" ht="13.5" customHeight="1"/>
+    <row r="974" ht="13.5" customHeight="1"/>
+    <row r="975" ht="13.5" customHeight="1"/>
+    <row r="976" ht="13.5" customHeight="1"/>
+    <row r="977" ht="13.5" customHeight="1"/>
+    <row r="978" ht="13.5" customHeight="1"/>
+    <row r="979" ht="13.5" customHeight="1"/>
+    <row r="980" ht="13.5" customHeight="1"/>
+    <row r="981" ht="13.5" customHeight="1"/>
+    <row r="982" ht="13.5" customHeight="1"/>
+    <row r="983" ht="13.5" customHeight="1"/>
+    <row r="984" ht="13.5" customHeight="1"/>
+    <row r="985" ht="13.5" customHeight="1"/>
+    <row r="986" ht="13.5" customHeight="1"/>
+    <row r="987" ht="13.5" customHeight="1"/>
+    <row r="988" ht="13.5" customHeight="1"/>
+    <row r="989" ht="13.5" customHeight="1"/>
+    <row r="990" ht="13.5" customHeight="1"/>
+    <row r="991" ht="13.5" customHeight="1"/>
+    <row r="992" ht="13.5" customHeight="1"/>
+    <row r="993" ht="13.5" customHeight="1"/>
+    <row r="994" ht="13.5" customHeight="1"/>
+    <row r="995" ht="13.5" customHeight="1"/>
+    <row r="996" ht="13.5" customHeight="1"/>
+    <row r="997" ht="13.5" customHeight="1"/>
+    <row r="998" ht="13.5" customHeight="1"/>
+    <row r="999" ht="13.5" customHeight="1"/>
+    <row r="1000" ht="13.5" customHeight="1"/>
+    <row r="1001" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F7:G7"/>
+  <mergeCells count="6">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A27:M27"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
